--- a/财务.xlsx
+++ b/财务.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinting/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinting/Desktop/记账/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="258">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1084,6 +1084,13 @@
     <t>余额：7840.27</t>
     <rPh sb="0" eb="1">
       <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <rPh sb="0" eb="1">
+      <t>shui'guo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1439,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N273"/>
+  <dimension ref="A1:N274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="D277" sqref="D277"/>
+      <selection activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1504,11 +1511,11 @@
       </c>
       <c r="H2" s="2">
         <f>SUM(C:C)</f>
-        <v>19303.599999999999</v>
+        <v>19340.599999999999</v>
       </c>
       <c r="I2" s="2">
         <f>G2-H2</f>
-        <v>7812.0600000000013</v>
+        <v>7775.0600000000013</v>
       </c>
       <c r="L2">
         <v>2017</v>
@@ -4653,6 +4660,17 @@
       </c>
       <c r="C273" s="2">
         <v>28.21</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>43512</v>
+      </c>
+      <c r="B274" t="s">
+        <v>257</v>
+      </c>
+      <c r="C274" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
